--- a/sequences/05_cues.xlsx
+++ b/sequences/05_cues.xlsx
@@ -25,196 +25,196 @@
     <t>category</t>
   </si>
   <si>
-    <t>flower/flower071.png</t>
-  </si>
-  <si>
-    <t>flower/flower089.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>face/face121.png</t>
+    <t>flower/flower093.png</t>
+  </si>
+  <si>
+    <t>flower/flower097.png</t>
+  </si>
+  <si>
+    <t>flower/flower082.png</t>
+  </si>
+  <si>
+    <t>face/face119.png</t>
+  </si>
+  <si>
+    <t>face/face096.png</t>
+  </si>
+  <si>
+    <t>face/face091.png</t>
+  </si>
+  <si>
+    <t>flower/flower109.png</t>
+  </si>
+  <si>
+    <t>face/face102.png</t>
+  </si>
+  <si>
+    <t>face/face092.png</t>
+  </si>
+  <si>
+    <t>face/face104.png</t>
+  </si>
+  <si>
+    <t>face/face071.png</t>
+  </si>
+  <si>
+    <t>face/face098.png</t>
+  </si>
+  <si>
+    <t>flower/flower092.png</t>
+  </si>
+  <si>
+    <t>face/face069.png</t>
+  </si>
+  <si>
+    <t>flower/flower091.png</t>
+  </si>
+  <si>
+    <t>flower/flower094.png</t>
+  </si>
+  <si>
+    <t>flower/flower087.png</t>
+  </si>
+  <si>
+    <t>face/face090.png</t>
+  </si>
+  <si>
+    <t>face/face083.png</t>
+  </si>
+  <si>
+    <t>face/face097.png</t>
+  </si>
+  <si>
+    <t>flower/flower068.png</t>
+  </si>
+  <si>
+    <t>flower/flower122.png</t>
+  </si>
+  <si>
+    <t>face/face080.png</t>
   </si>
   <si>
     <t>flower/flower083.png</t>
   </si>
   <si>
-    <t>flower/flower101.png</t>
-  </si>
-  <si>
-    <t>flower/flower066.png</t>
-  </si>
-  <si>
-    <t>flower/flower112.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>flower/flower091.png</t>
-  </si>
-  <si>
-    <t>flower/flower100.png</t>
-  </si>
-  <si>
-    <t>flower/flower064.png</t>
-  </si>
-  <si>
-    <t>flower/flower086.png</t>
-  </si>
-  <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>face/face082.png</t>
-  </si>
-  <si>
-    <t>flower/flower094.png</t>
-  </si>
-  <si>
-    <t>face/face066.png</t>
-  </si>
-  <si>
-    <t>face/face109.png</t>
-  </si>
-  <si>
-    <t>face/face071.png</t>
-  </si>
-  <si>
-    <t>face/face101.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>face/face108.png</t>
-  </si>
-  <si>
-    <t>flower/flower077.png</t>
-  </si>
-  <si>
-    <t>face/face078.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>face/face087.png</t>
-  </si>
-  <si>
-    <t>face/face105.png</t>
+    <t>face/face115.png</t>
+  </si>
+  <si>
+    <t>flower/flower069.png</t>
+  </si>
+  <si>
+    <t>flower/flower072.png</t>
+  </si>
+  <si>
+    <t>face/face114.png</t>
+  </si>
+  <si>
+    <t>flower/flower070.png</t>
+  </si>
+  <si>
+    <t>face/face094.png</t>
   </si>
   <si>
     <t>flower/flower065.png</t>
   </si>
   <si>
-    <t>flower/flower082.png</t>
-  </si>
-  <si>
-    <t>flower/flower074.png</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>drücken</t>
+    <t>flower/flower114.png</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>mieten</t>
   </si>
   <si>
     <t>tauschen</t>
   </si>
   <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>bluten</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>sorgen</t>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
   </si>
   <si>
     <t>flower</t>
@@ -634,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -662,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -704,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -732,7 +732,7 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -746,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -760,7 +760,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -788,7 +788,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -802,7 +802,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -816,7 +816,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -900,7 +900,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -928,7 +928,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -942,7 +942,7 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -956,7 +956,7 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -970,7 +970,7 @@
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -998,7 +998,7 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">

--- a/sequences/05_cues.xlsx
+++ b/sequences/05_cues.xlsx
@@ -25,202 +25,202 @@
     <t>category</t>
   </si>
   <si>
-    <t>flower/flower093.png</t>
-  </si>
-  <si>
-    <t>flower/flower097.png</t>
-  </si>
-  <si>
-    <t>flower/flower082.png</t>
-  </si>
-  <si>
-    <t>face/face119.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>flower/flower109.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>face/face092.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>face/face071.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>flower/flower092.png</t>
-  </si>
-  <si>
-    <t>face/face069.png</t>
-  </si>
-  <si>
-    <t>flower/flower091.png</t>
-  </si>
-  <si>
-    <t>flower/flower094.png</t>
-  </si>
-  <si>
-    <t>flower/flower087.png</t>
-  </si>
-  <si>
-    <t>face/face090.png</t>
-  </si>
-  <si>
-    <t>face/face083.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>flower/flower068.png</t>
-  </si>
-  <si>
-    <t>flower/flower122.png</t>
-  </si>
-  <si>
-    <t>face/face080.png</t>
-  </si>
-  <si>
-    <t>flower/flower083.png</t>
-  </si>
-  <si>
-    <t>face/face115.png</t>
-  </si>
-  <si>
-    <t>flower/flower069.png</t>
-  </si>
-  <si>
-    <t>flower/flower072.png</t>
-  </si>
-  <si>
-    <t>face/face114.png</t>
-  </si>
-  <si>
-    <t>flower/flower070.png</t>
-  </si>
-  <si>
-    <t>face/face094.png</t>
-  </si>
-  <si>
-    <t>flower/flower065.png</t>
-  </si>
-  <si>
-    <t>flower/flower114.png</t>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower016.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>gelten</t>
   </si>
   <si>
     <t>hauen</t>
   </si>
   <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>saufen</t>
   </si>
   <si>
     <t>klappen</t>
   </si>
   <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>dauern</t>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>füttern</t>
   </si>
   <si>
     <t>starten</t>
   </si>
   <si>
-    <t>antun</t>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
   </si>
   <si>
     <t>biegen</t>
   </si>
   <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schenken</t>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>kehren</t>
   </si>
   <si>
     <t>hupen</t>
   </si>
   <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
     <t>füllen</t>
   </si>
   <si>
-    <t>fühlen</t>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -662,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -732,7 +732,7 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -746,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -760,7 +760,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -774,7 +774,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -788,7 +788,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -802,7 +802,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -830,7 +830,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -844,7 +844,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -900,7 +900,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -914,7 +914,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -956,7 +956,7 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -984,7 +984,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_cues.xlsx
+++ b/sequences/05_cues.xlsx
@@ -14,17 +14,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+  <si>
+    <t>word</t>
+  </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>schnappen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>stinken</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>rächen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>hexen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
     <t>face/face030.jpg</t>
   </si>
   <si>
@@ -119,102 +263,6 @@
   </si>
   <si>
     <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
   </si>
   <si>
     <t>face</t>
@@ -578,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,445 +650,573 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_cues.xlsx
+++ b/sequences/05_cues.xlsx
@@ -28,250 +28,250 @@
     <t>wenden</t>
   </si>
   <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>nerven</t>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>segeln</t>
   </si>
   <si>
     <t>rufen</t>
   </si>
   <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
     <t>drücken</t>
   </si>
   <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
     <t>husten</t>
   </si>
   <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
     <t>spielen</t>
   </si>
   <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>ruhen</t>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>platzen</t>
   </si>
   <si>
     <t>küssen</t>
   </si>
   <si>
-    <t>weigern</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>kosten</t>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>töten</t>
   </si>
   <si>
     <t>erben</t>
   </si>
   <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
     <t>dog/dog008.jpg</t>
   </si>
   <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
     <t>dog/dog014.jpg</t>
   </si>
   <si>
-    <t>dog/dog015.jpg</t>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
   </si>
   <si>
     <t>face/face017.jpg</t>
   </si>
   <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
   </si>
   <si>
     <t>dog/dog030.jpg</t>
   </si>
   <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
+    <t>face</t>
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -709,7 +709,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -764,7 +764,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -797,7 +797,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -841,7 +841,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -863,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -929,7 +929,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -940,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -973,7 +973,7 @@
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3">

--- a/sequences/05_cues.xlsx
+++ b/sequences/05_cues.xlsx
@@ -28,244 +28,244 @@
     <t>wenden</t>
   </si>
   <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
     <t>wachsen</t>
   </si>
   <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>enden</t>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>albern</t>
   </si>
   <si>
     <t>rühren</t>
   </si>
   <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>weigern</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
     <t>face/face021.jpg</t>
   </si>
   <si>
-    <t>face/face025.jpg</t>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
   </si>
   <si>
     <t>dog/dog008.jpg</t>
   </si>
   <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
   </si>
   <si>
     <t>face</t>
@@ -676,7 +676,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -709,7 +709,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -731,7 +731,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -764,7 +764,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -775,7 +775,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -797,7 +797,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -808,7 +808,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -896,7 +896,7 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -929,7 +929,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1105,7 +1105,7 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1127,7 +1127,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:3">
